--- a/text.xlsx
+++ b/text.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>[상무님과의 회의]                                                                                                                                                                                                                                                                Aseessment team에 대한 활동 범위를 kt ds, kt 그룹 전체로 볼 만큼 크게 보자.
                                                                                                                                                                                                                                                                 Quality에 대한 방법론에서부터 시작을 해보자.
@@ -73,6 +73,14 @@
 5. 상세 일정을 구축 단계 다음 장으로 오도록 하게 하라
 6. 총 몇 M/M가 들어가는지, 어느 시점에서 들어갈 것인지 표시해야 한다.
 -----------------------------------------------------------------------------------</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 리소스 유틸라이션은 가중치를 낮추던지, 목표를 낮추던지 해야 할 것 같다. 가중치가 30%라고 한다면, 목표를 낮추는 것으로 해야한다. 나중에 이 수치는 다시 낮춰보자.
+차라리 우리는 ceo 수명 과제의 가중치를 높여야 한다. resource utilization 30%를 차라리 수명과제에 넣어라.
+2. 컬럼 순서 : 센터 KPI / 업무 목표명 / 가중치 / 목표 수준 / 완료일 / 달성 방안
+SW기술연구소 KPI를 모두 넣는다. (가중치, 목표 포함) 이후에 없는건 오른쪽 내용 뺀다
+목표 수준에 측정 방식을 추가 기입하자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -538,9 +546,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
+    <row r="9" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>41414</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
